--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Код (1,3)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Код (1,4)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Код (2,4)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Код (1,5)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Код (2,5)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Код (3,5)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Код (1,6)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Код (2,6)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Код (3,6)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Код (3,1)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Код (4,1)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Код (4,2)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Код (5,1)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Код (5,2)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Код (5,3)</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Код (6,1)</t>
         </is>
       </c>
     </row>
@@ -462,7 +537,52 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>78</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>42</v>
+      </c>
+      <c r="O3" t="n">
         <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -474,6 +594,48 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -481,6 +643,36 @@
           <t>max+3</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -488,6 +680,27 @@
           <t>max+4</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -495,6 +708,27 @@
           <t>max+5</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -502,6 +736,24 @@
           <t>max+6</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -509,6 +761,18 @@
           <t>max+7</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -516,6 +780,15 @@
           <t>max+8</t>
         </is>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -523,6 +796,12 @@
           <t>max+9</t>
         </is>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -530,6 +809,12 @@
           <t>max+10</t>
         </is>
       </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -537,6 +822,9 @@
           <t>max+11</t>
         </is>
       </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -544,6 +832,9 @@
           <t>max+12</t>
         </is>
       </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -551,6 +842,9 @@
           <t>max+13</t>
         </is>
       </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -558,6 +852,9 @@
           <t>max+14</t>
         </is>
       </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -565,6 +862,9 @@
           <t>max+15</t>
         </is>
       </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -572,103 +872,8 @@
           <t>max+16</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>max+17</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>max+18</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>max+19</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>max+20</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>max+21</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>max+22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>max+23</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>max+24</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>max+25</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>max+26</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>max+27</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>max+28</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>max+29</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>max+30</t>
-        </is>
+      <c r="H18" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Код (1,3)</t>
+          <t>Код (3,1)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Код (1,4)</t>
+          <t>Код (4,1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Код (2,4)</t>
+          <t>Код (4,2)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Код (1,5)</t>
+          <t>Код (5,1)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Код (2,5)</t>
+          <t>Код (5,2)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Код (3,5)</t>
+          <t>Код (5,3)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Код (1,6)</t>
+          <t>Код (6,1)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Код (2,6)</t>
+          <t>Код (6,2)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Код (3,6)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Код (3,1)</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Код (4,1)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Код (4,2)</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Код (5,1)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Код (5,2)</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Код (5,3)</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Код (6,1)</t>
+          <t>Код (6,3)</t>
         </is>
       </c>
     </row>
@@ -537,53 +502,32 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="n">
         <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>78</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>23</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>42</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -595,46 +539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>72</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -644,34 +570,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>16</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -684,22 +598,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -709,25 +617,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +642,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -762,16 +658,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -781,13 +674,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,11 +689,11 @@
           <t>max+9</t>
         </is>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -809,11 +702,11 @@
           <t>max+10</t>
         </is>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -823,7 +716,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -843,7 +736,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -873,6 +766,26 @@
         </is>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>max+17</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>max+18</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>Код (6,3)</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Код (7,1)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Код (7,2)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Код (7,3)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,7 +517,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>20</v>
@@ -511,13 +526,13 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>78</v>
@@ -526,7 +541,16 @@
         <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>98</v>
+      </c>
+      <c r="L3" t="n">
+        <v>78</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -539,22 +563,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="n">
         <v>30</v>
@@ -562,6 +586,15 @@
       <c r="J4" t="n">
         <v>6</v>
       </c>
+      <c r="K4" t="n">
+        <v>98</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -573,13 +606,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -587,6 +620,15 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>92</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -595,10 +637,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -609,6 +651,18 @@
       <c r="I6" t="n">
         <v>6</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>89</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -631,6 +685,18 @@
       <c r="I7" t="n">
         <v>1</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>78</v>
+      </c>
+      <c r="L7" t="n">
+        <v>22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -642,13 +708,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>74</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -661,9 +739,18 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>60</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,10 +764,16 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>57</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -695,6 +788,15 @@
       <c r="H11" t="n">
         <v>4</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -708,6 +810,12 @@
       <c r="H12" t="n">
         <v>3</v>
       </c>
+      <c r="K12" t="n">
+        <v>39</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,6 +826,12 @@
       <c r="H13" t="n">
         <v>3</v>
       </c>
+      <c r="K13" t="n">
+        <v>28</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -728,6 +842,12 @@
       <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="K14" t="n">
+        <v>26</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -738,6 +858,12 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="K15" t="n">
+        <v>17</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -748,6 +874,12 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
+      <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -758,6 +890,12 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -766,7 +904,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -778,6 +919,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -786,6 +930,169 @@
         </is>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>max+19</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>max+20</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>max+21</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>max+22</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>max+23</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>max+24</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>max+25</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>max+26</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>max+27</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>max+28</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>max+29</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>max+30</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>max+31</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>max+32</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>max+33</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>max+34</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>0</v>
       </c>
     </row>
